--- a/Trossulus_edulis_dynamics_in_Kandalaksha_Bay_English/R_calc_for_NT_Dynamics/Data/Mytilus old and new samples morphotype count 2023.xlsx
+++ b/Trossulus_edulis_dynamics_in_Kandalaksha_Bay_English/R_calc_for_NT_Dynamics/Data/Mytilus old and new samples morphotype count 2023.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet name="Mytilus old and new samples mor" sheetId="1" r:id="rId1"/>
+    <sheet name="Mytilus old and new samples" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mytilus old and new samples mor'!$A$1:$J$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mytilus old and new samples'!$A$1:$J$115</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="97">
   <si>
     <t>Year</t>
   </si>
@@ -281,16 +282,43 @@
   </si>
   <si>
     <t>Matrenin_Gerasimova</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_H_1</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_C_1</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_B_1</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_H_2</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_C_2</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_B_2_subsample</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_B_3</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_H_3</t>
+  </si>
+  <si>
+    <t>Matrenin_Aristov_C_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -302,22 +330,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -333,23 +370,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,16 +408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,16 +424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,24 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +459,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -455,25 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,25 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,67 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +543,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,13 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +674,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,177 +774,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -924,53 +952,53 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,6 +1008,228 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Текстовое поле 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="22860"/>
+          <a:ext cx="8374380" cy="4907280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Соотношение численностей морфотипов в точках исторических сборов (были изучены раковины из коллекций створок разных коллектоов) и в побах, пересобранных в тех же точках.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Year - год сбора	</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Period - перод: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t>old - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>в исторических коллекциях, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t>new - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>в пробах, пересобранных в тех же точках.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Position - литорали или сублитоаль</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Site - Название айта</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Site_number - Номер сайта </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>Sample - номер или иной </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t> пробы</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>N_T - Число особей </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t> морфотипа</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>N_E - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Число особей </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> морфотипа</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>lat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>широта</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>long - долгота</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,10 +1490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105:J106"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -4656,11 +4906,316 @@
         <v>33.629944</v>
       </c>
     </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" s="2">
+        <v>7</v>
+      </c>
+      <c r="H107" s="2">
+        <v>109</v>
+      </c>
+      <c r="I107" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J107" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="2">
+        <v>8</v>
+      </c>
+      <c r="H108" s="2">
+        <v>72</v>
+      </c>
+      <c r="I108" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J108" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="2">
+        <v>4</v>
+      </c>
+      <c r="H109" s="2">
+        <v>166</v>
+      </c>
+      <c r="I109" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J109" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="2">
+        <v>10</v>
+      </c>
+      <c r="H110" s="2">
+        <v>46</v>
+      </c>
+      <c r="I110" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J110" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G111" s="2">
+        <v>11</v>
+      </c>
+      <c r="H111" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J111" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G112" s="2">
+        <v>8</v>
+      </c>
+      <c r="H112" s="2">
+        <v>100</v>
+      </c>
+      <c r="I112" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J112" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="2">
+        <v>8</v>
+      </c>
+      <c r="H113" s="2">
+        <v>115</v>
+      </c>
+      <c r="I113" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J113" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G114" s="2">
+        <v>5</v>
+      </c>
+      <c r="H114" s="2">
+        <v>35</v>
+      </c>
+      <c r="I114" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J114" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>76</v>
+      </c>
+      <c r="I115" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J115" s="4">
+        <v>33.629944</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J103">
+  <autoFilter ref="A1:J115">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>